--- a/ResultadoEleicoesDistritos/CASTELO BRANCO_FUNDÃO.xlsx
+++ b/ResultadoEleicoesDistritos/CASTELO BRANCO_FUNDÃO.xlsx
@@ -597,64 +597,64 @@
         <v>7460</v>
       </c>
       <c r="H2" t="n">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="I2" t="n">
-        <v>729</v>
+        <v>768</v>
       </c>
       <c r="J2" t="n">
-        <v>3006</v>
+        <v>3150</v>
       </c>
       <c r="K2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="M2" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N2" t="n">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="S2" t="n">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="T2" t="n">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="U2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V2" t="n">
-        <v>4719</v>
+        <v>4773</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>4942</v>
+        <v>4708</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
